--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Anh Tuấn NB</t>
+  </si>
+  <si>
+    <t>ĐL Minh Huy</t>
+  </si>
+  <si>
+    <t>ĐL GPS Global</t>
+  </si>
+  <si>
+    <t>ĐL Nguyễn Cương</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1416,37 +1425,75 @@
       <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>4</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="8">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>5</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1382,19 +1382,17 @@
         <v>1</v>
       </c>
       <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="8"/>
+      <c r="G20" s="14">
         <v>1</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="H20" s="14">
         <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 3/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>ĐL Nguyễn Cương</t>
+  </si>
+  <si>
+    <t>ĐL TechGlobal</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1497,13 +1500,27 @@
       <c r="A25" s="8">
         <v>6</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="8">
+        <v>13</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
